--- a/ig/branch/dev/StructureDefinition-Biosample.xlsx
+++ b/ig/branch/dev/StructureDefinition-Biosample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>A sample to be used for analysis.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -1355,10 +1359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1820,10 +1824,10 @@
         <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1834,10 +1838,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1848,7 +1852,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1857,19 +1861,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1919,13 +1923,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1945,10 +1949,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1959,7 +1963,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1968,16 +1972,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2028,19 +2032,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2054,10 +2058,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2068,28 +2072,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2139,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2165,10 +2169,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2179,7 +2183,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2191,16 +2195,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2226,13 +2230,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2250,19 +2254,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2276,21 +2280,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2302,16 +2306,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2361,22 +2365,22 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2387,14 +2391,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2413,16 +2417,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2472,7 +2476,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2487,7 +2491,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2498,10 +2502,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2524,13 +2528,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2569,17 +2573,17 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2591,7 +2595,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2605,13 +2609,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -2621,10 +2625,10 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
@@ -2633,13 +2637,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2690,7 +2694,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2699,10 +2703,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2716,13 +2720,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2735,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -2744,13 +2748,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2801,7 +2805,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2810,10 +2814,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2827,13 +2831,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -2843,10 +2847,10 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -2855,13 +2859,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2912,7 +2916,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2921,10 +2925,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2938,13 +2942,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -2957,7 +2961,7 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -2966,13 +2970,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3023,7 +3027,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3032,10 +3036,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3049,13 +3053,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3068,7 +3072,7 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
@@ -3077,13 +3081,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3134,7 +3138,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3143,10 +3147,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3160,13 +3164,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3179,7 +3183,7 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>76</v>
@@ -3188,13 +3192,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3245,7 +3249,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3254,10 +3258,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3271,13 +3275,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -3290,7 +3294,7 @@
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3299,13 +3303,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3356,7 +3360,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3365,10 +3369,10 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3382,13 +3386,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
@@ -3398,10 +3402,10 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3410,13 +3414,13 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3467,7 +3471,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3476,10 +3480,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3493,14 +3497,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3513,25 +3517,25 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3580,7 +3584,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3592,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3606,10 +3610,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3617,28 +3621,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3689,7 +3693,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3701,24 +3705,24 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3729,7 +3733,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3738,16 +3742,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3798,36 +3802,36 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3838,28 +3842,28 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3885,13 +3889,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3909,36 +3913,36 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3949,28 +3953,28 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3996,13 +4000,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4020,36 +4024,36 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4060,29 +4064,29 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4131,25 +4135,25 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4157,10 +4161,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4171,7 +4175,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4180,16 +4184,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4240,36 +4244,36 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4292,16 +4296,16 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4351,7 +4355,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4363,10 +4367,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4377,10 +4381,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4403,16 +4407,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4462,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4474,24 +4478,24 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4502,7 +4506,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4514,13 +4518,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4571,36 +4575,36 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4611,7 +4615,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4623,13 +4627,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4680,13 +4684,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4695,7 +4699,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4706,14 +4710,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4732,16 +4736,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4791,7 +4795,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4803,10 +4807,10 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4817,14 +4821,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4837,25 +4841,25 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4904,7 +4908,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4916,10 +4920,10 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4930,10 +4934,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4944,7 +4948,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4953,16 +4957,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5013,36 +5017,36 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5053,25 +5057,25 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5122,36 +5126,36 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5162,7 +5166,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5171,16 +5175,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5231,25 +5235,25 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5257,10 +5261,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5271,7 +5275,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5283,13 +5287,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5340,36 +5344,36 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5380,7 +5384,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5392,13 +5396,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5425,13 +5429,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5449,36 +5453,36 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5489,10 +5493,10 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>76</v>
@@ -5501,16 +5505,16 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5536,13 +5540,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5560,36 +5564,36 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5600,7 +5604,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5609,22 +5613,22 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5649,13 +5653,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5673,19 +5677,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5694,15 +5698,15 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5725,13 +5729,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5782,7 +5786,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5794,10 +5798,10 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5808,10 +5812,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5822,7 +5826,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5834,13 +5838,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5891,13 +5895,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5906,7 +5910,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5917,14 +5921,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5943,16 +5947,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6002,7 +6006,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6014,10 +6018,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6028,14 +6032,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6048,25 +6052,25 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6115,7 +6119,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6127,10 +6131,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6141,10 +6145,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6155,7 +6159,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6167,13 +6171,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6224,22 +6228,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6250,10 +6254,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6264,10 +6268,10 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>76</v>
@@ -6276,13 +6280,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6309,13 +6313,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6333,22 +6337,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6359,10 +6363,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6385,13 +6389,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6442,7 +6446,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6454,24 +6458,24 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6482,7 +6486,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6494,13 +6498,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6551,22 +6555,22 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6577,10 +6581,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6603,13 +6607,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6660,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6672,10 +6676,10 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6686,10 +6690,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6700,7 +6704,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6712,13 +6716,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6769,13 +6773,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6784,7 +6788,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6795,14 +6799,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6821,16 +6825,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6880,7 +6884,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6892,10 +6896,10 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6906,14 +6910,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6926,25 +6930,25 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6993,7 +6997,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7005,10 +7009,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7019,10 +7023,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7042,16 +7046,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7102,7 +7106,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7114,24 +7118,24 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7142,7 +7146,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7154,13 +7158,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7211,22 +7215,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7237,10 +7241,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7251,7 +7255,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7263,13 +7267,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7296,13 +7300,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7320,36 +7324,36 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7360,7 +7364,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7372,13 +7376,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7429,36 +7433,36 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7469,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7481,13 +7485,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7538,36 +7542,36 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7578,7 +7582,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7590,13 +7594,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7623,13 +7627,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -7647,36 +7651,36 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7696,22 +7700,22 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7736,13 +7740,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7760,7 +7764,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7772,7 +7776,7 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7781,15 +7785,15 @@
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7803,7 +7807,7 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>76</v>
@@ -7812,13 +7816,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7869,7 +7873,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7881,16 +7885,16 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
